--- a/DATA/IsoData/BARTIsoData.xlsx
+++ b/DATA/IsoData/BARTIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">088c57c8-6a81-44c0-8b6f-b4f4af5ff47a</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e566110a-f6e5-4a54-b61b-f076a1935de4</t>
   </si>
   <si>
     <t xml:space="preserve">BART.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T154145Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6e8d5b1f-f33f-4bcb-84a0-84bf48c233b4</t>
+    <t xml:space="preserve">20210112T152237Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a9984c3-f9ff-42c4-a894-1b5dd457bc75</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20181029.1334</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000032734</t>
   </si>
   <si>
-    <t xml:space="preserve">cad8f448-11ea-4ab8-97d6-854eba570e1a</t>
+    <t xml:space="preserve">1aa70d75-7b96-49ef-906e-2e0da6d3de2c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20181130.1056</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000032733</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153354Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">693ef8ce-a992-4bbe-bd29-6a35a4aa1233</t>
+    <t xml:space="preserve">20210112T152835Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4d6d55bd-d13d-44c8-94f5-7882845bfb9a</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190107.1100</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A00000032999</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153417Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a6fed3d7-9aa0-4aa5-82e0-2e612a6bf82b</t>
+    <t xml:space="preserve">20210111T181106Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a10bfb52-3b7b-4ede-a176-3c0d5fb815bc</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190131.1301</t>
@@ -143,7 +149,7 @@
     <t xml:space="preserve">A00000033001</t>
   </si>
   <si>
-    <t xml:space="preserve">12de2727-1885-460d-8c5e-2ecfda38c001</t>
+    <t xml:space="preserve">b1d0601d-148c-46b2-86eb-a1ef2d6cd552</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190409.1347</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000033000</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T152710Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6f69b1b1-0dda-406e-a0a4-6dd87c2363c9</t>
+    <t xml:space="preserve">20210111T165057Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dedbe319-99b4-4f82-a2de-4ce60d3d3562</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190429.1536</t>
@@ -170,7 +176,7 @@
     <t xml:space="preserve">A00000066874</t>
   </si>
   <si>
-    <t xml:space="preserve">c9c72e13-1e82-4cb4-874d-70b6efdb5ffa</t>
+    <t xml:space="preserve">b6ff5555-43d2-4751-b79e-74137c564db7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190513.1602</t>
@@ -182,10 +188,10 @@
     <t xml:space="preserve">A00000066861</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150932Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56d5e8d5-0ca6-4543-a5cd-1bf39b77c2d5</t>
+    <t xml:space="preserve">20210111T175851Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8aa47268-655b-4a1e-ba1a-248a8764a146</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190529.1058</t>
@@ -197,7 +203,7 @@
     <t xml:space="preserve">A00000066863</t>
   </si>
   <si>
-    <t xml:space="preserve">7e52c240-4a3b-4579-964f-9cd3b772daeb</t>
+    <t xml:space="preserve">5deddecf-6352-4d2e-a455-5d7beea3e93e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190610.1610</t>
@@ -209,10 +215,10 @@
     <t xml:space="preserve">A00000066866</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153309Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137d7af4-d69a-4ba3-80b2-68b8f50e0090</t>
+    <t xml:space="preserve">20210111T175212Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54aadbc9-71f2-4aa5-8931-9c22b340ec55</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190624.1409</t>
@@ -224,7 +230,7 @@
     <t xml:space="preserve">A00000066869</t>
   </si>
   <si>
-    <t xml:space="preserve">562fce3e-d8ca-4a86-99e6-1e0614e09e7a</t>
+    <t xml:space="preserve">3795d408-de7b-4830-b890-d43b01a05a54</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190708.1055</t>
@@ -236,10 +242,10 @@
     <t xml:space="preserve">A00000066899</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150526Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7350996-ab11-4ff9-963a-55c5999abc0d</t>
+    <t xml:space="preserve">20210111T175715Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4db1983e-9a99-4cff-af19-0882f8d86602</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190722.1025</t>
@@ -251,7 +257,7 @@
     <t xml:space="preserve">A00000067456</t>
   </si>
   <si>
-    <t xml:space="preserve">aaa1d10a-5ea6-4085-9c87-f872225834dd</t>
+    <t xml:space="preserve">72560795-d6be-461a-a825-a46a4bc4add3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190805.1048</t>
@@ -263,10 +269,10 @@
     <t xml:space="preserve">A00000067455</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T154100Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ee8cd403-69ed-4896-8bb2-be3bdcc06b84</t>
+    <t xml:space="preserve">20210111T175350Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a2b84a96-d245-40a7-ae8d-b174eb31d310</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190826.1414</t>
@@ -278,7 +284,7 @@
     <t xml:space="preserve">A00000066904</t>
   </si>
   <si>
-    <t xml:space="preserve">b3394f95-d27b-4f8c-a793-ebbe56f54c56</t>
+    <t xml:space="preserve">5b04d7bc-7921-4334-bb19-e324d14ec6c5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190903.1102</t>
@@ -290,10 +296,10 @@
     <t xml:space="preserve">A00000066901</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T154209Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">487d86be-a372-4c09-8d42-5c927302b3e9</t>
+    <t xml:space="preserve">20210112T152722Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6e463fd4-6e28-47b3-8e84-d83252b98444</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190916.1551</t>
@@ -305,7 +311,7 @@
     <t xml:space="preserve">A00000066902</t>
   </si>
   <si>
-    <t xml:space="preserve">674356d9-25fe-4a07-89b1-d36305fb058e</t>
+    <t xml:space="preserve">5adc1e15-b6d8-40d0-8d73-cf6f4c2938a0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20190930.1747</t>
@@ -317,7 +323,7 @@
     <t xml:space="preserve">A00000067442</t>
   </si>
   <si>
-    <t xml:space="preserve">fa6f1bca-2176-4db8-b18e-650b2c885015</t>
+    <t xml:space="preserve">aae95566-2c2b-4151-9010-c31d4de54517</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20191015.1014</t>
@@ -329,10 +335,10 @@
     <t xml:space="preserve">A00000067424</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153425Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cec74ba3-da15-497f-98e1-9a2ebb69d80c</t>
+    <t xml:space="preserve">20210112T153659Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ac29c88-e178-4439-b6ae-8971095b972c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20191029.1420</t>
@@ -344,7 +350,7 @@
     <t xml:space="preserve">A00000067441</t>
   </si>
   <si>
-    <t xml:space="preserve">2a2cc8d3-7699-4d68-873b-5be7b39fc628</t>
+    <t xml:space="preserve">9ab7c740-a111-48aa-8def-fc477309c697</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20191114.1122</t>
@@ -356,10 +362,10 @@
     <t xml:space="preserve">A00000067425</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153736Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f469fafd-8ade-460e-b32d-d773eeb54083</t>
+    <t xml:space="preserve">20210112T153026Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c965e3e1-df0b-478e-8d9c-8dd5ec467cb8</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20191125.1035</t>
@@ -371,7 +377,7 @@
     <t xml:space="preserve">A00000067431</t>
   </si>
   <si>
-    <t xml:space="preserve">58f8ae7e-962b-4cae-9c67-e484c4c07462</t>
+    <t xml:space="preserve">7e68dd60-7a6f-49fe-ab4d-26540b99fc68</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20191205.1041</t>
@@ -383,10 +389,10 @@
     <t xml:space="preserve">A00000067430</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160519Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51eabdd7-d5ce-4e87-85bb-ce5a2360ee35</t>
+    <t xml:space="preserve">20210112T153749Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64bf6140-97a5-4cf1-b7f0-b72663c4938e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20191216.1035</t>
@@ -398,7 +404,7 @@
     <t xml:space="preserve">A00000067433</t>
   </si>
   <si>
-    <t xml:space="preserve">6e8f005c-c7a3-42fa-86c1-d499ab76afe0</t>
+    <t xml:space="preserve">341e74f1-12f5-4c52-94d2-6f225ea1ad9b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20200106.1025</t>
@@ -410,10 +416,13 @@
     <t xml:space="preserve">A00000067450</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T145917Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b3e50951-24fb-45b8-8778-608e3ec2caaf</t>
+    <t xml:space="preserve">20210112T152026Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8838cf58-74a2-4dbb-bc41-d53e370f9d61</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20200122.1100</t>
@@ -425,7 +434,7 @@
     <t xml:space="preserve">A00000067447</t>
   </si>
   <si>
-    <t xml:space="preserve">85d500e4-5673-4805-aed8-9b775d21c21e</t>
+    <t xml:space="preserve">b5649112-6c8e-42ea-b45d-a0391f611352</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BART.20200131.1027</t>
@@ -435,6 +444,147 @@
   </si>
   <si>
     <t xml:space="preserve">A00000126277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3d272378-d85e-4486-832f-24c560b415f8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200220.1037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200220.1037.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T151838Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1699469c-41a9-4c29-8db6-92d4ec026b56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200302.1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200302.1100.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T152334Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c9b8f61b-ad5f-49b8-8142-a32068c8a6dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200316.1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200316.1030.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d5f296f6-5225-4588-843f-a800937b8867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200623.1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200623.1100.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T152549Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98086b8b-1521-4d51-8821-904aee9fc9fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200707.1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200707.1020.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T153322Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74a529b6-cecd-4a5a-88c3-f3e3f8950430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200720.1017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200720.1017.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46f65681-ec07-4073-a036-217e7012bd4e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200805.1022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200805.1022.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T153146Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d0f23224-4aad-4370-82e4-c9ce6d627c14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200901.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200901.1000.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T153426Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1febdc6-029f-466d-b675-5e8ff37d0032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200914.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20200914.1000.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a057fd3b-3a10-4054-b660-192cd16d3a3f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20201007.1028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BART.20201007.1028.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000126295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210201T152318Z</t>
   </si>
 </sst>
 </file>
@@ -772,7 +922,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -826,23 +976,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43374.7590277778</v>
@@ -863,35 +1016,38 @@
         <v>0.28</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43479.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43390.5277777778</v>
@@ -912,35 +1068,38 @@
         <v>0.082</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43479.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43416.69375</v>
@@ -961,35 +1120,38 @@
         <v>0.171</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43482.7916666667</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43451.6520833333</v>
@@ -1010,35 +1172,38 @@
         <v>0.061</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43616.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43487.6833333333</v>
@@ -1059,35 +1224,38 @@
         <v>0.046</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43616.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43556.7152777778</v>
@@ -1108,35 +1276,38 @@
         <v>0.159</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43643.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43564.7576388889</v>
@@ -1157,35 +1328,38 @@
         <v>0.088</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43643.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43584.8284722222</v>
@@ -1206,35 +1380,38 @@
         <v>0.147</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43643.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43598.84375</v>
@@ -1255,35 +1432,38 @@
         <v>0.133</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43643.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43614.6236111111</v>
@@ -1304,35 +1484,38 @@
         <v>0.192</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43626.8506944444</v>
@@ -1353,35 +1536,38 @@
         <v>0.178</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43640.7569444444</v>
@@ -1402,35 +1588,38 @@
         <v>0.088</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43654.6284722222</v>
@@ -1451,35 +1640,38 @@
         <v>0.133</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43668.6048611111</v>
@@ -1500,35 +1692,38 @@
         <v>0.122</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43682.625</v>
@@ -1549,35 +1744,38 @@
         <v>0.063</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43703.7631944444</v>
@@ -1598,35 +1796,38 @@
         <v>0.062</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43711.6270833333</v>
@@ -1647,35 +1848,38 @@
         <v>0.109</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43724.8326388889</v>
@@ -1696,38 +1900,41 @@
         <v>0.109</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>43374.7590277778</v>
+        <v>43738.7479166667</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>43753.5930555556</v>
@@ -1745,35 +1952,38 @@
         <v>0.024</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43874.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>43753.5930555556</v>
@@ -1794,35 +2004,38 @@
         <v>0.167</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>43874.7916666667</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>43767.35</v>
@@ -1843,35 +2056,38 @@
         <v>0.186</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>43874.7916666667</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>43783.6958333333</v>
@@ -1892,35 +2108,38 @@
         <v>0.162</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>43874.7916666667</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>43794.6527777778</v>
@@ -1941,35 +2160,38 @@
         <v>0.147</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>43874.7916666667</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P24"/>
       <c r="Q24" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>43804.6506944444</v>
@@ -1990,35 +2212,38 @@
         <v>0.068</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P25"/>
       <c r="Q25" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>43815.6493055556</v>
@@ -2039,35 +2264,38 @@
         <v>0.164</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P26"/>
       <c r="Q26" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="R26" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>43836.6409722222</v>
@@ -2088,35 +2316,38 @@
         <v>0.044</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="R27" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>43852.6666666667</v>
@@ -2137,17 +2368,540 @@
         <v>0.125</v>
       </c>
       <c r="M28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P28"/>
       <c r="Q28" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="R28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>43861.6458333333</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>43881.6506944444</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-13.72</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-96.948</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="M29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>44043.75</v>
+      </c>
+      <c r="O29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29"/>
+      <c r="Q29" t="s">
+        <v>148</v>
+      </c>
+      <c r="R29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>43881.6506944444</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>43892.6666666667</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-14.498</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-104.34</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>44043.75</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30" t="s">
+        <v>153</v>
+      </c>
+      <c r="R30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>43892.6743055556</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>43906.6041666667</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-8.779</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-56.307</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="M31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>44043.75</v>
+      </c>
+      <c r="O31" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31"/>
+      <c r="Q31" t="s">
+        <v>153</v>
+      </c>
+      <c r="R31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>43998.6458333333</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>44005.625</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.904</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-4.432</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>44084.75</v>
+      </c>
+      <c r="O32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32" t="s">
+        <v>162</v>
+      </c>
+      <c r="R32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>44005.6458333333</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>44019.5972222222</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-9.994</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-70.375</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>44084.75</v>
+      </c>
+      <c r="O33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33"/>
+      <c r="Q33" t="s">
+        <v>167</v>
+      </c>
+      <c r="R33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>44019.6041666667</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>44032.5951388889</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-6.169</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-40.145</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="M34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>44084.75</v>
+      </c>
+      <c r="O34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34"/>
+      <c r="Q34" t="s">
+        <v>167</v>
+      </c>
+      <c r="R34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>44032.6069444444</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>44048.5986111111</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-5.784</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-37.673</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="M35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>44084.75</v>
+      </c>
+      <c r="O35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35"/>
+      <c r="Q35" t="s">
+        <v>176</v>
+      </c>
+      <c r="R35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>44060.625</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>44075.5833333333</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-8.582</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-55.226</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="M36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>44148.7916666667</v>
+      </c>
+      <c r="O36" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36"/>
+      <c r="Q36" t="s">
+        <v>181</v>
+      </c>
+      <c r="R36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>44076.5833333333</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>44088.5833333333</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-4.327</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-21.628</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>44148.7916666667</v>
+      </c>
+      <c r="O37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37"/>
+      <c r="Q37" t="s">
+        <v>181</v>
+      </c>
+      <c r="R37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>44088.5833333333</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>44111.6027777778</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-4.982</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-29.387</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="M38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>44148.7916666667</v>
+      </c>
+      <c r="O38" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38"/>
+      <c r="Q38" t="s">
+        <v>190</v>
+      </c>
+      <c r="R38" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
